--- a/src/utils/predictor_table.xlsx
+++ b/src/utils/predictor_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Peru-env-futures\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B6A99-8C4D-41AE-917F-EAA4880AD6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E72292-7E84-4F50-AA3D-72A343384BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2925" windowWidth="23160" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="1260" windowWidth="18105" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
   <si>
     <t>Variable_name</t>
   </si>
@@ -117,55 +117,127 @@
     <t>https://plataforma.peru.mapbiomas.org</t>
   </si>
   <si>
-    <t>Peru_data_collab/Preds/Raw/Watershed/unidad-hidrografica.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Titled_Peasant/comunidad-campesina-titulada.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Titled_Native/comunidad-nativa-titulada.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Regional_Conservation/area-conservacion-regional.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Region/nivel-politico-2.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Recognized_Peasant/comunidad-campesina-reconocida.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Province/nivel-politico-3.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Private_Conservation/area-conservacion-privada.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/National_Protected/area-natural-protegida.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Geographical_Region/region-geografica.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Fragile_Ecosystem/ecosistema-fragil.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Expansion_Titling/comunidad-nativa-solicitud.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Ecozone/ecozona.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Ecoregion/ecorregion.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/District/nivel-politico-4.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Country/nivel-politico-1.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Biome/bioma-pais.shp</t>
+    <t>Bulk density</t>
+  </si>
+  <si>
+    <t>Cation exchange capacity at ph 7</t>
+  </si>
+  <si>
+    <t>Coarse fragments volumetric</t>
+  </si>
+  <si>
+    <t>Clay content</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Soil pH in H2O</t>
+  </si>
+  <si>
+    <t>Sand content</t>
+  </si>
+  <si>
+    <t>Silt content</t>
+  </si>
+  <si>
+    <t>Soil organic carbon content</t>
+  </si>
+  <si>
+    <t>Soil organic carbon stock</t>
+  </si>
+  <si>
+    <t>Organic carbon densities</t>
+  </si>
+  <si>
+    <t>https://maps.isric.org</t>
+  </si>
+  <si>
+    <t>SoilGrids</t>
+  </si>
+  <si>
+    <t>250m</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_bulk_density_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_cation_exchange_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_coarse_fragments_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_clay_content_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_nitrogen_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_pH_0-5_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_sand_content_0-5_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_silt_content_0-5cm_mean.tif"</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_soil_carbon_stock_0-5_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/Peru_organic_carbon_densities_0-5_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Titled_Peasant/comunidad-campesina-titulada.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Titled_Native/comunidad-nativa-titulada.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Regional_Conservation/area-conservacion-regional.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Region/nivel-politico-2.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Recognized_Peasant/comunidad-campesina-reconocida.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Province/nivel-politico-3.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Private_Conservation/area-conservacion-privada.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/National_Protected/area-natural-protegida.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Geographical_Region/region-geografica.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Fragile_Ecosystem/ecosistema-fragil.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Expansion_Titling/comunidad-nativa-solicitud.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Ecozone/ecozona.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Ecoregion/ecorregion.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/District/nivel-politico-4.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Country/nivel-politico-1.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Biome/bioma-pais.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Watershed/unidad-hidrografica.shp</t>
   </si>
 </sst>
 </file>
@@ -494,22 +566,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -561,7 +634,7 @@
         <v>2021</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -581,7 +654,7 @@
         <v>2023</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -601,7 +674,7 @@
         <v>2023</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -621,7 +694,7 @@
         <v>2022</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -641,7 +714,7 @@
         <v>2017</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -661,7 +734,7 @@
         <v>2023</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -681,7 +754,7 @@
         <v>2017</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -701,7 +774,7 @@
         <v>2022</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -721,7 +794,7 @@
         <v>2023</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -741,7 +814,7 @@
         <v>2023</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -761,7 +834,7 @@
         <v>2019</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -781,7 +854,7 @@
         <v>2023</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,7 +874,7 @@
         <v>2017</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,7 +894,7 @@
         <v>2017</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,7 +914,7 @@
         <v>2017</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -861,7 +934,7 @@
         <v>2023</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,13 +954,232 @@
         <v>2023</v>
       </c>
       <c r="I18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{10B546E1-FCEC-4443-9709-29715852E2CA}"/>
     <hyperlink ref="C3:C18" r:id="rId2" display="https://plataforma.peru.mapbiomas.org" xr:uid="{C17EFE67-11D1-4DDA-92C5-D9E59964D9AD}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{262482F2-5736-482A-AD8E-6C6DF2410FC3}"/>
+    <hyperlink ref="C20:C29" r:id="rId4" display="https://maps.isric.org" xr:uid="{80B96339-6FA4-4781-8201-C4AD7D9CD1A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/utils/predictor_table.xlsx
+++ b/src/utils/predictor_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Peru-env-futures\src\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E72292-7E84-4F50-AA3D-72A343384BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D229B388-B30A-48AC-AE2D-9F29EF4FA099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2715" yWindow="1260" windowWidth="18105" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="660" windowWidth="21765" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="80">
   <si>
     <t>Variable_name</t>
   </si>
@@ -238,6 +238,33 @@
   </si>
   <si>
     <t>Peru_data_collab/Preds/Raw/Shapefiles/Watershed/unidad-hidrografica.shp</t>
+  </si>
+  <si>
+    <t>Navigable Rivers</t>
+  </si>
+  <si>
+    <t>Rivers and Streams</t>
+  </si>
+  <si>
+    <t>Lakes and lagoons</t>
+  </si>
+  <si>
+    <t>OCHA Services</t>
+  </si>
+  <si>
+    <t>https://data.humdata.org/dataset/hidrografia-de-peru?</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/navigable_river/Rio_navegables.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/river_stream/Rios_Quebradas.shp</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/lake_lagoon/Lagos_lagunas_Project.shp</t>
   </si>
 </sst>
 </file>
@@ -566,18 +593,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
@@ -627,6 +654,9 @@
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -647,6 +677,9 @@
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
@@ -667,6 +700,9 @@
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
@@ -687,6 +723,9 @@
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
@@ -707,6 +746,9 @@
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
@@ -727,6 +769,9 @@
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
@@ -747,6 +792,9 @@
       <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
@@ -767,6 +815,9 @@
       <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
@@ -787,6 +838,9 @@
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
@@ -807,6 +861,9 @@
       <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
@@ -827,6 +884,9 @@
       <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
@@ -847,6 +907,9 @@
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
@@ -867,6 +930,9 @@
       <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
@@ -887,6 +953,9 @@
       <c r="C15" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
@@ -907,6 +976,9 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
@@ -927,6 +999,9 @@
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
@@ -947,6 +1022,9 @@
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
       <c r="E18" t="s">
         <v>10</v>
       </c>
@@ -1171,6 +1249,66 @@
         <v>43</v>
       </c>
       <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
         <v>10</v>
       </c>
     </row>

--- a/src/utils/predictor_table.xlsx
+++ b/src/utils/predictor_table.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Peru-env-futures\src\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ethz-my.sharepoint.com/personal/chshen_ethz_ch/Documents/Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D229B388-B30A-48AC-AE2D-9F29EF4FA099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_05A585415F7C880E62355476585DCE3A8746BFAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B99D5C3-4470-4360-9251-181D533147FE}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="660" windowWidth="21765" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="1575" windowWidth="28005" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="181">
   <si>
     <t>Variable_name</t>
   </si>
@@ -57,227 +52,535 @@
     <t>Prepared_data_path</t>
   </si>
   <si>
+    <t>Watershed</t>
+  </si>
+  <si>
+    <t>MapBiomas</t>
+  </si>
+  <si>
+    <t>https://plataforma.peru.mapbiomas.org</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
     <t>static</t>
   </si>
   <si>
-    <t>Watershed</t>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Watershed/unidad-hidrografica.shp</t>
   </si>
   <si>
     <t>Titled Peasant Community</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Titled_Peasant/comunidad-campesina-titulada.shp</t>
+  </si>
+  <si>
     <t>Titled Native Community</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Titled_Native/comunidad-nativa-titulada.shp</t>
+  </si>
+  <si>
     <t>Regional Conservation Areas</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Regional_Conservation/area-conservacion-regional.shp</t>
+  </si>
+  <si>
     <t>Region</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Region/nivel-politico-2.shp</t>
+  </si>
+  <si>
     <t>Recognized Peasant Community</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Recognized_Peasant/comunidad-campesina-reconocida.shp</t>
+  </si>
+  <si>
     <t>Province</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Province/nivel-politico-3.shp</t>
+  </si>
+  <si>
     <t>Private Conservation Areas</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Private_Conservation/area-conservacion-privada.shp</t>
+  </si>
+  <si>
     <t>National Protected Areas</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/National_Protected/area-natural-protegida.shp</t>
+  </si>
+  <si>
+    <t>Geographical Region</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Geographical_Region/region-geografica.shp</t>
+  </si>
+  <si>
     <t>Fragile Ecosystem</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Fragile_Ecosystem/ecosistema-fragil.shp</t>
+  </si>
+  <si>
     <t>Expansion or Titling Application</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Expansion_Titling/comunidad-nativa-solicitud.shp</t>
+  </si>
+  <si>
     <t>Ecozone</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Ecozone/ecozona.shp</t>
+  </si>
+  <si>
     <t>Ecoregion</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Ecoregion/ecorregion.shp</t>
+  </si>
+  <si>
     <t>District</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/District/nivel-politico-4.shp</t>
+  </si>
+  <si>
     <t>Country</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Country/nivel-politico-1.shp</t>
+  </si>
+  <si>
     <t>Biome</t>
   </si>
   <si>
-    <t>Geographical Region</t>
-  </si>
-  <si>
-    <t>MapBiomas</t>
-  </si>
-  <si>
-    <t>https://plataforma.peru.mapbiomas.org</t>
-  </si>
-  <si>
-    <t>Bulk density</t>
-  </si>
-  <si>
-    <t>Cation exchange capacity at ph 7</t>
-  </si>
-  <si>
-    <t>Coarse fragments volumetric</t>
-  </si>
-  <si>
-    <t>Clay content</t>
-  </si>
-  <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Soil pH in H2O</t>
-  </si>
-  <si>
-    <t>Sand content</t>
-  </si>
-  <si>
-    <t>Silt content</t>
-  </si>
-  <si>
-    <t>Soil organic carbon content</t>
-  </si>
-  <si>
-    <t>Soil organic carbon stock</t>
-  </si>
-  <si>
-    <t>Organic carbon densities</t>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/Biome/bioma-pais.shp</t>
+  </si>
+  <si>
+    <t>SoilGrids</t>
   </si>
   <si>
     <t>https://maps.isric.org</t>
   </si>
   <si>
-    <t>SoilGrids</t>
-  </si>
-  <si>
     <t>250m</t>
   </si>
   <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_bulk_density_0-5cm_mean.tif</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_cation_exchange_0-5cm_mean.tif</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_coarse_fragments_0-5cm_mean.tif</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_clay_content_0-5cm_mean.tif</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_nitrogen_0-5cm_mean.tif</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_pH_0-5_mean.tif</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_sand_content_0-5_mean.tif</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_silt_content_0-5cm_mean.tif"</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_soil_carbon_stock_0-5_mean.tif</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Soil/Peru_organic_carbon_densities_0-5_mean.tif</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Titled_Peasant/comunidad-campesina-titulada.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Titled_Native/comunidad-nativa-titulada.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Regional_Conservation/area-conservacion-regional.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Region/nivel-politico-2.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Recognized_Peasant/comunidad-campesina-reconocida.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Province/nivel-politico-3.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Private_Conservation/area-conservacion-privada.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/National_Protected/area-natural-protegida.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Geographical_Region/region-geografica.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Fragile_Ecosystem/ecosistema-fragil.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Expansion_Titling/comunidad-nativa-solicitud.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Ecozone/ecozona.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Ecoregion/ecorregion.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/District/nivel-politico-4.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Country/nivel-politico-1.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Biome/bioma-pais.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/Watershed/unidad-hidrografica.shp</t>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/navigable_river/Rio_navegables.shp</t>
   </si>
   <si>
     <t>Navigable Rivers</t>
   </si>
   <si>
+    <t>OCHA Services</t>
+  </si>
+  <si>
+    <t>https://data.humdata.org/dataset/hidrografia-de-peru?</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/river_stream/Rios_Quebradas.shp</t>
+  </si>
+  <si>
     <t>Rivers and Streams</t>
   </si>
   <si>
+    <t>Peru_data_collab/Preds/Raw/Shapefiles/lake_lagoon/Lagos_lagunas_Project.shp</t>
+  </si>
+  <si>
     <t>Lakes and lagoons</t>
   </si>
   <si>
-    <t>OCHA Services</t>
-  </si>
-  <si>
-    <t>https://data.humdata.org/dataset/hidrografia-de-peru?</t>
-  </si>
-  <si>
-    <t>na</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/navigable_river/Rio_navegables.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/river_stream/Rios_Quebradas.shp</t>
-  </si>
-  <si>
-    <t>Peru_data_collab/Preds/Raw/Shapefiles/lake_lagoon/Lagos_lagunas_Project.shp</t>
+    <t>Cation exchange capacity 0-5cm</t>
+  </si>
+  <si>
+    <t>Cation exchange capacity 100-200cm</t>
+  </si>
+  <si>
+    <t>Cation exchange capacity 15-30cm</t>
+  </si>
+  <si>
+    <t>Cation exchange capacity 30-60cm</t>
+  </si>
+  <si>
+    <t>Cation exchange capacity 5-15cm</t>
+  </si>
+  <si>
+    <t>Cation exchange capacity 60-100cm</t>
+  </si>
+  <si>
+    <t>Bulk density 0-5cm</t>
+  </si>
+  <si>
+    <t>Bulk density 100-200cm</t>
+  </si>
+  <si>
+    <t>Bulk density 15-30cm</t>
+  </si>
+  <si>
+    <t>Bulk density 30-60cm</t>
+  </si>
+  <si>
+    <t>Bulk density 5-15cm</t>
+  </si>
+  <si>
+    <t>Bulk density 60-100cm</t>
+  </si>
+  <si>
+    <t>Nitrogen 0-5cm</t>
+  </si>
+  <si>
+    <t>Nitrogen 100-200cm</t>
+  </si>
+  <si>
+    <t>Nitrogen 15-30cm</t>
+  </si>
+  <si>
+    <t>Nitrogen 30-60cm</t>
+  </si>
+  <si>
+    <t>Nitrogen 5-15cm</t>
+  </si>
+  <si>
+    <t>Nitrogen 60-100cm</t>
+  </si>
+  <si>
+    <t>Organic carbon densities 0-5cm</t>
+  </si>
+  <si>
+    <t>Organic carbon densities 100-200cm</t>
+  </si>
+  <si>
+    <t>Organic carbon densities 15-30cm</t>
+  </si>
+  <si>
+    <t>Organic carbon densities 30-60cm</t>
+  </si>
+  <si>
+    <t>Organic carbon densities 5-15cm</t>
+  </si>
+  <si>
+    <t>Organic carbon densities 60-100cm</t>
+  </si>
+  <si>
+    <t>Organic carbon stock 0-30cm</t>
+  </si>
+  <si>
+    <t>Soil pH in H2O 0-5cm</t>
+  </si>
+  <si>
+    <t>Soil pH in H2O 100-200cm</t>
+  </si>
+  <si>
+    <t>Soil pH in H2O 15-30cm</t>
+  </si>
+  <si>
+    <t>Soil pH in H2O 30-60cm</t>
+  </si>
+  <si>
+    <t>Soil pH in H2O 5-15cm</t>
+  </si>
+  <si>
+    <t>Soil pH in H2O 60-100cm</t>
+  </si>
+  <si>
+    <t>Sand content 0-5cm</t>
+  </si>
+  <si>
+    <t>Sand content 100-200cm</t>
+  </si>
+  <si>
+    <t>Sand content 15-30cm</t>
+  </si>
+  <si>
+    <t>Sand content 30-60cm</t>
+  </si>
+  <si>
+    <t>Sand content 5-15cm</t>
+  </si>
+  <si>
+    <t>Sand content 60-100cm</t>
+  </si>
+  <si>
+    <t>Silt content_0-5cm</t>
+  </si>
+  <si>
+    <t>Silt content_100-200cm</t>
+  </si>
+  <si>
+    <t>Silt content_15-30cm</t>
+  </si>
+  <si>
+    <t>Silt content_30-60cm</t>
+  </si>
+  <si>
+    <t>Silt content_5-15cm</t>
+  </si>
+  <si>
+    <t>Silt content_60-100cm</t>
+  </si>
+  <si>
+    <t>Soil organic carbon content 0-5cm</t>
+  </si>
+  <si>
+    <t>Soil organic carbon content 100-200cm</t>
+  </si>
+  <si>
+    <t>Soil organic carbon content 15-30cm</t>
+  </si>
+  <si>
+    <t>Soil organic carbon content 30-60cm</t>
+  </si>
+  <si>
+    <t>Soil organic carbon content 5-15cm</t>
+  </si>
+  <si>
+    <t>Soil organic carbon content 60-100cm</t>
+  </si>
+  <si>
+    <t>Clay content 0-5cm</t>
+  </si>
+  <si>
+    <t>Clay content 100-200cm</t>
+  </si>
+  <si>
+    <t>Clay content 15-30cm</t>
+  </si>
+  <si>
+    <t>Clay content 30-60cm</t>
+  </si>
+  <si>
+    <t>Clay content 5-15cm</t>
+  </si>
+  <si>
+    <t>Clay content 60-100cm</t>
+  </si>
+  <si>
+    <t>Coarse fragments volumetric 100-200cm</t>
+  </si>
+  <si>
+    <t>Coarse fragments volumetric 15-30cm</t>
+  </si>
+  <si>
+    <t>Coarse fragments volumetric 30-60cm</t>
+  </si>
+  <si>
+    <t>Coarse fragments volumetric 5-15cm</t>
+  </si>
+  <si>
+    <t>Coarse fragments volumetric 60-100cm</t>
+  </si>
+  <si>
+    <t>Coarse fragments volumetric 0-5cm</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/bdod_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/bdod_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/bdod_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/bdod_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/bdod_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/bdod_60-100cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cec_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cec_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cec_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cec_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cec_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cec_60-100cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cfvo_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cfvo_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cfvo_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cfvo_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cfvo_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/cfvo_60-100cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/clay_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/clay_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/clay_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/clay_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/clay_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/clay_60-100cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/nitrogen_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/nitrogen_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/nitrogen_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/nitrogen_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/nitrogen_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/nitrogen_60-100cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/ocd_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/ocd_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/ocd_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/ocd_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/ocd_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/ocd_60-100cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/ocs_0-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/pH_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/pH_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/pH_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/pH_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/pH_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/pH_60-100cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/sand_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/sand_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/sand_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/sand_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/sand_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/sand_60-100cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/silt_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/silt_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/silt_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/silt_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/silt_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/silt_60-100cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/soc_0-5cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/soc_100-200cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/soc_15-30cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/soc_30-60cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/soc_5-15cm_mean.tif</t>
+  </si>
+  <si>
+    <t>Peru_data_collab/Preds/Raw/Soil/soc_60-100cm_mean.tif</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -296,7 +599,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -304,21 +607,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -341,44 +662,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -405,15 +726,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -440,7 +760,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,873 +771,1899 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="47.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>29</v>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>2021</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>2023</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>2023</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>2022</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>2017</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7">
         <v>2023</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>2017</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9">
         <v>2022</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10">
         <v>2023</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>2023</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>2019</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13">
         <v>2023</v>
       </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>2017</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>2017</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>2017</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>2023</v>
       </c>
       <c r="I17" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>2023</v>
       </c>
       <c r="I18" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>73</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>74</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>75</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>76</v>
       </c>
-      <c r="E32" t="s">
-        <v>10</v>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>50</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" t="s">
+        <v>48</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>48</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" t="s">
+        <v>50</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>95</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>50</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s">
+        <v>50</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" t="s">
+        <v>50</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" t="s">
+        <v>50</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" t="s">
+        <v>50</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{10B546E1-FCEC-4443-9709-29715852E2CA}"/>
-    <hyperlink ref="C3:C18" r:id="rId2" display="https://plataforma.peru.mapbiomas.org" xr:uid="{C17EFE67-11D1-4DDA-92C5-D9E59964D9AD}"/>
-    <hyperlink ref="C19" r:id="rId3" xr:uid="{262482F2-5736-482A-AD8E-6C6DF2410FC3}"/>
-    <hyperlink ref="C20:C29" r:id="rId4" display="https://maps.isric.org" xr:uid="{80B96339-6FA4-4781-8201-C4AD7D9CD1A7}"/>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{0D5B6D2F-3B1E-4F8C-9AD1-9F7E8AE58D17}"/>
+    <hyperlink ref="C23:C82" r:id="rId2" display="https://maps.isric.org" xr:uid="{AFB47F47-449C-4841-94B9-AC558A9F9901}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>